--- a/iselUssSyncV2/OutputWSL/20220426_1119_D50L474W90Q35.0U0.44H100G2_C_WSL.xlsx
+++ b/iselUssSyncV2/OutputWSL/20220426_1119_D50L474W90Q35.0U0.44H100G2_C_WSL.xlsx
@@ -122,10 +122,10 @@
         <v>50</v>
       </c>
       <c r="E2" s="0">
-        <v>100.54407114624506</v>
+        <v>100.54500191326603</v>
       </c>
       <c r="F2" s="0">
-        <v>100.4781818181818</v>
+        <v>100.47911258520277</v>
       </c>
     </row>
     <row r="3">
@@ -142,10 +142,10 @@
         <v>50</v>
       </c>
       <c r="E3" s="0">
-        <v>101.07284584980235</v>
+        <v>101.07512105807588</v>
       </c>
       <c r="F3" s="0">
-        <v>102.10671936758897</v>
+        <v>102.1089945758624</v>
       </c>
     </row>
     <row r="4">
@@ -162,10 +162,10 @@
         <v>50</v>
       </c>
       <c r="E4" s="0">
-        <v>99.708015873015896</v>
+        <v>99.710766806655656</v>
       </c>
       <c r="F4" s="0">
-        <v>103.96428571428569</v>
+        <v>103.96703664792553</v>
       </c>
     </row>
     <row r="5">
@@ -182,10 +182,10 @@
         <v>50</v>
       </c>
       <c r="E5" s="0">
-        <v>98.901553784860539</v>
+        <v>98.904359875064515</v>
       </c>
       <c r="F5" s="0">
-        <v>104.68394422310762</v>
+        <v>104.68675031331155</v>
       </c>
     </row>
     <row r="6">
@@ -202,7 +202,7 @@
         <v>50</v>
       </c>
       <c r="E6" s="0">
-        <v>97.415000000000006</v>
+        <v>97.417854352197637</v>
       </c>
       <c r="F6" s="0"/>
     </row>
@@ -220,10 +220,10 @@
         <v>50</v>
       </c>
       <c r="E7" s="0">
-        <v>94.691071428571419</v>
+        <v>94.693967148192243</v>
       </c>
       <c r="F7" s="0">
-        <v>104.75055555555559</v>
+        <v>104.75345127517636</v>
       </c>
     </row>
     <row r="8">
@@ -240,10 +240,10 @@
         <v>50</v>
       </c>
       <c r="E8" s="0">
-        <v>90.054682539682517</v>
+        <v>90.057612732155945</v>
       </c>
       <c r="F8" s="0">
-        <v>98.326904761904757</v>
+        <v>98.329834954378214</v>
       </c>
     </row>
     <row r="9">
@@ -260,7 +260,7 @@
         <v>50</v>
       </c>
       <c r="E9" s="0">
-        <v>87.543027888446233</v>
+        <v>87.545969939580942</v>
       </c>
       <c r="F9" s="0"/>
     </row>
@@ -278,7 +278,7 @@
         <v>50</v>
       </c>
       <c r="E10" s="0">
-        <v>84.43099601593623</v>
+        <v>84.43394882260101</v>
       </c>
       <c r="F10" s="0"/>
     </row>
@@ -296,7 +296,7 @@
         <v>50</v>
       </c>
       <c r="E11" s="0">
-        <v>81.425936254980087</v>
+        <v>81.428898714043555</v>
       </c>
       <c r="F11" s="0"/>
     </row>
@@ -314,7 +314,7 @@
         <v>50</v>
       </c>
       <c r="E12" s="0">
-        <v>79.570039682539658</v>
+        <v>79.573006554128327</v>
       </c>
       <c r="F12" s="0"/>
     </row>
@@ -332,7 +332,7 @@
         <v>50</v>
       </c>
       <c r="E13" s="0">
-        <v>77.832669322709165</v>
+        <v>77.835640331040139</v>
       </c>
       <c r="F13" s="0"/>
     </row>
@@ -350,7 +350,7 @@
         <v>50</v>
       </c>
       <c r="E14" s="0">
-        <v>75.984365079365077</v>
+        <v>75.987339948655531</v>
       </c>
       <c r="F14" s="0"/>
     </row>
@@ -368,7 +368,7 @@
         <v>50</v>
       </c>
       <c r="E15" s="0">
-        <v>74.509681274900359</v>
+        <v>74.512659729367542</v>
       </c>
       <c r="F15" s="0"/>
     </row>
@@ -386,7 +386,7 @@
         <v>50</v>
       </c>
       <c r="E16" s="0">
-        <v>70.9791666666667</v>
+        <v>70.982151464138667</v>
       </c>
       <c r="F16" s="0"/>
     </row>
@@ -404,10 +404,10 @@
         <v>50</v>
       </c>
       <c r="E17" s="0">
-        <v>67.640796812749002</v>
+        <v>67.643786850094585</v>
       </c>
       <c r="F17" s="0">
-        <v>33.721394422310759</v>
+        <v>33.724384459656349</v>
       </c>
     </row>
     <row r="18">
@@ -424,10 +424,10 @@
         <v>50</v>
       </c>
       <c r="E18" s="0">
-        <v>64.254940239043805</v>
+        <v>64.257934413131736</v>
       </c>
       <c r="F18" s="0">
-        <v>33.200836653386453</v>
+        <v>33.203830827474349</v>
       </c>
     </row>
     <row r="19">
@@ -444,10 +444,10 @@
         <v>50</v>
       </c>
       <c r="E19" s="0">
-        <v>58.659561752988047</v>
+        <v>58.662560891166713</v>
       </c>
       <c r="F19" s="0">
-        <v>33.388565737051799</v>
+        <v>33.391564875230479</v>
       </c>
     </row>
     <row r="20">
@@ -464,10 +464,10 @@
         <v>50</v>
       </c>
       <c r="E20" s="0">
-        <v>52.436254980079703</v>
+        <v>52.439254118258361</v>
       </c>
       <c r="F20" s="0">
-        <v>36.236573705179282</v>
+        <v>36.239572843357969</v>
       </c>
     </row>
     <row r="21">
@@ -484,10 +484,10 @@
         <v>50</v>
       </c>
       <c r="E21" s="0">
-        <v>47.038968253968264</v>
+        <v>47.04196049757644</v>
       </c>
       <c r="F21" s="0">
-        <v>42.133849206349211</v>
+        <v>42.136841449957366</v>
       </c>
     </row>
     <row r="22">
@@ -504,10 +504,10 @@
         <v>50</v>
       </c>
       <c r="E22" s="0">
-        <v>42.790396825396812</v>
+        <v>42.793375279863952</v>
       </c>
       <c r="F22" s="0">
-        <v>52.636150793650792</v>
+        <v>52.639129248117911</v>
       </c>
     </row>
     <row r="23">
@@ -524,10 +524,10 @@
         <v>50</v>
       </c>
       <c r="E23" s="0">
-        <v>39.56849206349208</v>
+        <v>39.571449834247609</v>
       </c>
       <c r="F23" s="0">
-        <v>68.953611111111115</v>
+        <v>68.956568881866644</v>
       </c>
     </row>
     <row r="24">
@@ -544,10 +544,10 @@
         <v>50</v>
       </c>
       <c r="E24" s="0">
-        <v>36.739007936507917</v>
+        <v>36.741903656128727</v>
       </c>
       <c r="F24" s="0">
-        <v>68.700476190476209</v>
+        <v>68.703371910097005</v>
       </c>
     </row>
     <row r="25">
@@ -564,10 +564,10 @@
         <v>50</v>
       </c>
       <c r="E25" s="0">
-        <v>39.112817460317444</v>
+        <v>39.115623550521413</v>
       </c>
       <c r="F25" s="0">
-        <v>52.177619047619046</v>
+        <v>52.180425137823001</v>
       </c>
     </row>
     <row r="26">
@@ -584,10 +584,10 @@
         <v>50</v>
       </c>
       <c r="E26" s="0">
-        <v>53.798253968253952</v>
+        <v>53.800942850758979</v>
       </c>
       <c r="F26" s="0">
-        <v>50.512698412698413</v>
+        <v>50.515387295203439</v>
       </c>
     </row>
     <row r="27">
@@ -604,10 +604,10 @@
         <v>50</v>
       </c>
       <c r="E27" s="0">
-        <v>75.30972222222222</v>
+        <v>75.312266318746197</v>
       </c>
       <c r="F27" s="0">
-        <v>50.941230158730157</v>
+        <v>50.943774255254148</v>
       </c>
     </row>
     <row r="28">
@@ -624,10 +624,10 @@
         <v>50</v>
       </c>
       <c r="E28" s="0">
-        <v>56.044682539682533</v>
+        <v>56.047054271943395</v>
       </c>
       <c r="F28" s="0">
-        <v>58.496904761904752</v>
+        <v>58.49927649416562</v>
       </c>
     </row>
     <row r="29">
@@ -644,10 +644,10 @@
         <v>50</v>
       </c>
       <c r="E29" s="0">
-        <v>53.486904761904768</v>
+        <v>53.489076551620357</v>
       </c>
       <c r="F29" s="0">
-        <v>72.950674603174605</v>
+        <v>72.952846392890194</v>
       </c>
     </row>
     <row r="30">
@@ -664,10 +664,10 @@
         <v>50</v>
       </c>
       <c r="E30" s="0">
-        <v>70.823849206349209</v>
+        <v>70.825538376128009</v>
       </c>
       <c r="F30" s="0">
-        <v>58.883095238095251</v>
+        <v>58.884784407874037</v>
       </c>
     </row>
   </sheetData>
